--- a/Input/dap/dap_oPt_hno_hum_conditions.xlsx
+++ b/Input/dap/dap_oPt_hno_hum_conditions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="172">
   <si>
     <t>research.question</t>
   </si>
@@ -199,6 +199,342 @@
   </si>
   <si>
     <t>Indicator.Group.Sector</t>
+  </si>
+  <si>
+    <t>hno_severity_food_1</t>
+  </si>
+  <si>
+    <t>hno_severity_food_2</t>
+  </si>
+  <si>
+    <t>hno_severity_food_3</t>
+  </si>
+  <si>
+    <t>hno_severity_food_4</t>
+  </si>
+  <si>
+    <t>hno_severity_food_5</t>
+  </si>
+  <si>
+    <t>hno_severity_health_1</t>
+  </si>
+  <si>
+    <t>hno_severity_health_2</t>
+  </si>
+  <si>
+    <t>hno_severity_health_3</t>
+  </si>
+  <si>
+    <t>hno_severity_health_4</t>
+  </si>
+  <si>
+    <t>hno_severity_health_5</t>
+  </si>
+  <si>
+    <t>hno_severity_edu_1</t>
+  </si>
+  <si>
+    <t>hno_severity_edu_2</t>
+  </si>
+  <si>
+    <t>hno_severity_edu_3</t>
+  </si>
+  <si>
+    <t>hno_severity_edu_4</t>
+  </si>
+  <si>
+    <t>hno_severity_edu_5</t>
+  </si>
+  <si>
+    <t>hno_severity_livelihood_1</t>
+  </si>
+  <si>
+    <t>hno_severity_livelihood_2</t>
+  </si>
+  <si>
+    <t>hno_severity_livelihood_3</t>
+  </si>
+  <si>
+    <t>hno_severity_livelihood_4</t>
+  </si>
+  <si>
+    <t>hno_severity_livelihood_5</t>
+  </si>
+  <si>
+    <t>hno_severity_protection_1</t>
+  </si>
+  <si>
+    <t>hno_severity_protection_2</t>
+  </si>
+  <si>
+    <t>hno_severity_protection_3</t>
+  </si>
+  <si>
+    <t>hno_severity_protection_4</t>
+  </si>
+  <si>
+    <t>hno_severity_protection_5</t>
+  </si>
+  <si>
+    <t>hno_severity_shelter_1</t>
+  </si>
+  <si>
+    <t>hno_severity_shelter_2</t>
+  </si>
+  <si>
+    <t>hno_severity_shelter_3</t>
+  </si>
+  <si>
+    <t>hno_severity_shelter_4</t>
+  </si>
+  <si>
+    <t>hno_severity_shelter_5</t>
+  </si>
+  <si>
+    <t>hno_severity_wash_1</t>
+  </si>
+  <si>
+    <t>hno_severity_wash_2</t>
+  </si>
+  <si>
+    <t>hno_severity_wash_3</t>
+  </si>
+  <si>
+    <t>hno_severity_wash_4</t>
+  </si>
+  <si>
+    <t>hno_severity_wash_5</t>
+  </si>
+  <si>
+    <t>Sectoral education severity scores</t>
+  </si>
+  <si>
+    <t>Sectoral food security severity scores</t>
+  </si>
+  <si>
+    <t>Sectoral health severity scores</t>
+  </si>
+  <si>
+    <t>Sectoral livelihood severity scores</t>
+  </si>
+  <si>
+    <t>Sectoral protection severity scores</t>
+  </si>
+  <si>
+    <t>Sectoral shelter severity scores</t>
+  </si>
+  <si>
+    <t>Sectoral WASH severity scores</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral health score of 1</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity health score of 1</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral health score of 2</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity health score of 2</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral health score of 3</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity health score of 3</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral health score of 4</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity health score of 4</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral health score of 5</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity health score of 5</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral livelihood score of 1</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity livelihood score of 1</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral livelihood score of 2</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity livelihood score of 2</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral livelihood score of 3</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity livelihood score of 3</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral livelihood score of 4</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity livelihood score of 4</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral livelihood score of 5</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity livelihood score of 5</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral protection score of 1</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity protection score of 1</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral protection score of 2</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity protection score of 2</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral protection score of 3</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity protection score of 3</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral protection score of 4</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity protection score of 4</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral protection score of 5</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity protection score of 5</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral shelter score of 1</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity shelter score of 1</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral shelter score of 2</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity shelter score of 2</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral shelter score of 3</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity shelter score of 3</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral shelter score of 4</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity shelter score of 4</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral shelter score of 5</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity shelter score of 5</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral wash score of 1</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity wash score of 1</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral wash score of 2</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity wash score of 2</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral wash score of 3</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity wash score of 3</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral wash score of 4</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity wash score of 4</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral wash score of 5</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity wash score of 5</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral education score of 1</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity education score of 1</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral education score of 2</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity education score of 2</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral education score of 3</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity education score of 3</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral education score of 4</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity education score of 4</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral education score of 5</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity education score of 5</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral food security score of 1</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity food security score of 1</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral food security score of 2</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity food security score of 2</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral food security score of 3</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity food security score of 3</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral food security score of 4</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity food security score of 4</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral food security score of 5</t>
+  </si>
+  <si>
+    <t>% of HHs with  sectoral severity food security score of 5</t>
   </si>
 </sst>
 </file>
@@ -532,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,6 +1260,811 @@
         <v>10</v>
       </c>
     </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>93</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>94</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Input/dap/dap_oPt_hno_hum_conditions.xlsx
+++ b/Input/dap/dap_oPt_hno_hum_conditions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="181">
   <si>
     <t>research.question</t>
   </si>
@@ -535,6 +535,33 @@
   </si>
   <si>
     <t>% of HHs with  sectoral severity food security score of 5</t>
+  </si>
+  <si>
+    <t>% of the school aged children who are out of school</t>
+  </si>
+  <si>
+    <t>s_3</t>
+  </si>
+  <si>
+    <t>% of the school aged children who are out of school (drop out)</t>
+  </si>
+  <si>
+    <t>s_4</t>
+  </si>
+  <si>
+    <t>Average time needed by school-enrolled children to access the nearest education facility (primary and secondary) / % of households reporting safety concerns in relation to their children’s education</t>
+  </si>
+  <si>
+    <t>s_5</t>
+  </si>
+  <si>
+    <t>% of HH school-aged children (who were previously attending school) NOT continuing teaching and learning activities remotely and in need of catch-up learning programs.</t>
+  </si>
+  <si>
+    <t>Food Expenditure share</t>
+  </si>
+  <si>
+    <t>s_7</t>
   </si>
 </sst>
 </file>
@@ -868,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2065,6 +2092,50 @@
         <v>10</v>
       </c>
     </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" t="s">
+        <v>179</v>
+      </c>
+      <c r="G55" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
